--- a/portafogli.xlsx
+++ b/portafogli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Mauro_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC8DBA6-E229-4EBF-9E0B-62B5286F055B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189A8A2A-BA6C-47BE-9CE1-F3F4FE34572F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{87F108F2-DDFB-442B-A78B-43F65A6ED8FF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">ASSET </t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>VOL.ATTESA</t>
+  </si>
+  <si>
+    <t>EQUITY</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309A44F9-E065-467A-B3F8-3EA81A2837B9}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +452,7 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +474,11 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -494,8 +500,12 @@
       <c r="G2" s="2">
         <v>0.2</v>
       </c>
+      <c r="H2" s="1">
+        <f>100%-SUM(E2:G2)</f>
+        <v>0.17999999999999994</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -517,8 +527,12 @@
       <c r="G3" s="2">
         <v>0.16</v>
       </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H5" si="0">100%-SUM(E3:G3)</f>
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -540,8 +554,12 @@
       <c r="G4" s="2">
         <v>0.13</v>
       </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -562,6 +580,10 @@
       </c>
       <c r="G5" s="2">
         <v>0.03</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
